--- a/pandas/003.xlsx設定/settings.xlsx
+++ b/pandas/003.xlsx設定/settings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
@@ -28,34 +28,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>kye2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>kye3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>value1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>value2</t>
-  </si>
-  <si>
-    <t>value3</t>
+    <t>key2</t>
+  </si>
+  <si>
+    <t>key3</t>
+  </si>
+  <si>
+    <t>key4</t>
+  </si>
+  <si>
+    <t>key5</t>
+  </si>
+  <si>
+    <t>value5</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>value4</t>
-  </si>
-  <si>
-    <t>value5</t>
-  </si>
-  <si>
-    <t>kye4</t>
-  </si>
-  <si>
-    <t>kye5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -429,7 +423,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -446,16 +440,16 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+      <c r="B2" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
+      <c r="B3" s="1">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -463,12 +457,12 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -476,10 +470,10 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
